--- a/table/ summary_subsample.xlsx
+++ b/table/ summary_subsample.xlsx
@@ -404,13 +404,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>121.394435068704</v>
+        <v>121.879632703448</v>
       </c>
       <c r="D2" t="n">
-        <v>55.399650889947</v>
+        <v>58.2569791227159</v>
       </c>
       <c r="E2" t="n">
-        <v>211.317259643833</v>
+        <v>203.70884813048</v>
       </c>
     </row>
     <row r="3">
@@ -421,13 +421,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>116.971564376734</v>
+        <v>123.583022963945</v>
       </c>
       <c r="D3" t="n">
-        <v>53.568782206018</v>
+        <v>58.5308770881283</v>
       </c>
       <c r="E3" t="n">
-        <v>198.166597910468</v>
+        <v>202.963640362701</v>
       </c>
     </row>
     <row r="4">
@@ -438,13 +438,13 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>83.9807517701531</v>
+        <v>86.843704162226</v>
       </c>
       <c r="D4" t="n">
-        <v>41.9169312891767</v>
+        <v>40.2852000423979</v>
       </c>
       <c r="E4" t="n">
-        <v>141.006354720548</v>
+        <v>158.7457574013</v>
       </c>
     </row>
     <row r="5">
@@ -455,13 +455,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>6.2180673963563</v>
+        <v>6.35080266728699</v>
       </c>
       <c r="D5" t="n">
-        <v>4.59262274558593</v>
+        <v>4.49688667951679</v>
       </c>
       <c r="E5" t="n">
-        <v>8.040748862663</v>
+        <v>8.28800749864028</v>
       </c>
     </row>
     <row r="6">
@@ -472,13 +472,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>7.20624091036816</v>
+        <v>7.15268555063809</v>
       </c>
       <c r="D6" t="n">
-        <v>5.20004635165618</v>
+        <v>5.08920710434629</v>
       </c>
       <c r="E6" t="n">
-        <v>9.22521699753329</v>
+        <v>9.20119472832165</v>
       </c>
     </row>
     <row r="7">
@@ -489,13 +489,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="n">
-        <v>10.7605624036988</v>
+        <v>10.5512266948544</v>
       </c>
       <c r="D7" t="n">
-        <v>7.16550542678176</v>
+        <v>7.14301798832163</v>
       </c>
       <c r="E7" t="n">
-        <v>16.1519173748027</v>
+        <v>14.9716406253222</v>
       </c>
     </row>
     <row r="8">
@@ -506,13 +506,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>3461.14283187124</v>
+        <v>3453.27746366264</v>
       </c>
       <c r="D8" t="n">
-        <v>2914.56363451625</v>
+        <v>2924.9492807845</v>
       </c>
       <c r="E8" t="n">
-        <v>4180.395504515</v>
+        <v>4153.5862433385</v>
       </c>
     </row>
     <row r="9">
@@ -523,13 +523,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="n">
-        <v>3582.47709973891</v>
+        <v>3590.02363503055</v>
       </c>
       <c r="D9" t="n">
-        <v>2946.18905324195</v>
+        <v>3008.446968529</v>
       </c>
       <c r="E9" t="n">
-        <v>4318.4219928</v>
+        <v>4276.80132282505</v>
       </c>
     </row>
     <row r="10">
@@ -540,13 +540,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="n">
-        <v>3447.97228039923</v>
+        <v>3440.64905065204</v>
       </c>
       <c r="D10" t="n">
-        <v>2948.91630214915</v>
+        <v>2927.1523711699</v>
       </c>
       <c r="E10" t="n">
-        <v>4180.1080385835</v>
+        <v>4108.753518791</v>
       </c>
     </row>
     <row r="11">
@@ -557,13 +557,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="n">
-        <v>727.472720779221</v>
+        <v>598.416997187061</v>
       </c>
       <c r="D11" t="n">
-        <v>168.04</v>
+        <v>164</v>
       </c>
       <c r="E11" t="n">
-        <v>1817</v>
+        <v>1685.01</v>
       </c>
     </row>
     <row r="12">
@@ -574,13 +574,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="n">
-        <v>489.54955922865</v>
+        <v>409.671538765822</v>
       </c>
       <c r="D12" t="n">
-        <v>167.1</v>
+        <v>160</v>
       </c>
       <c r="E12" t="n">
-        <v>1362.8</v>
+        <v>1048.84</v>
       </c>
     </row>
     <row r="13">
@@ -591,13 +591,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="n">
-        <v>2034.54985190409</v>
+        <v>1626.16864234675</v>
       </c>
       <c r="D13" t="n">
-        <v>297.524</v>
+        <v>266.91</v>
       </c>
       <c r="E13" t="n">
-        <v>6968.98299999999</v>
+        <v>4286.701</v>
       </c>
     </row>
   </sheetData>
